--- a/xlsx/本田Civic_intext.xlsx
+++ b/xlsx/本田Civic_intext.xlsx
@@ -29,13 +29,13 @@
     <t>Honda</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_本田Civic</t>
+    <t>政策_政策_混合动力车辆_本田Civic</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%943</t>
   </si>
   <si>
-    <t>馬自達3</t>
+    <t>马自达3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Tiida</t>
   </si>
   <si>
-    <t>日產Tiida</t>
+    <t>日产Tiida</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E6%8D%B7%E8%BE%BE</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8Impreza</t>
   </si>
   <si>
-    <t>速霸陸Impreza</t>
+    <t>速霸陆Impreza</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E9%A3%9E%E5%BA%A6</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第一次石油危機</t>
+    <t>第一次石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%B8%E5%AA%92%E8%BD%89%E5%8C%96%E5%99%A8</t>
   </si>
   <si>
-    <t>觸媒轉化器</t>
+    <t>触媒转化器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>旅行車</t>
+    <t>旅行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%A9%AB%E8%87%82%E6%87%B8%E6%9E%B6</t>
   </si>
   <si>
-    <t>雙橫臂懸架</t>
+    <t>双横臂悬架</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Honda_Civic</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E9%9B%BB%E6%B7%B7%E5%90%88%E8%BB%8A</t>
   </si>
   <si>
-    <t>油電混合車</t>
+    <t>油电混合车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SOHC</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>巴黎車展</t>
+    <t>巴黎车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>手動變速器</t>
+    <t>手动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8D%87</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%A2%A8%E6%9C%AC%E7%94%B0%E6%B1%BD%E8%BB%8A%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>東風本田汽車有限公司</t>
+    <t>东风本田汽车有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%98%8C%E8%A1%8C</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%9C%AC%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>台灣本田汽車</t>
+    <t>台湾本田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B44%E6%9C%88</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%99%BD%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>三陽工業</t>
+    <t>三阳工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E6%80%A7%E5%80%92%E9%96%89</t>
   </si>
   <si>
-    <t>惡性倒閉</t>
+    <t>恶性倒闭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
